--- a/notes/plan/2019/2019年度计划追踪.xlsx
+++ b/notes/plan/2019/2019年度计划追踪.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD63660-9D9A-4130-B3FC-EB4C1B870E7C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CD11BA-4142-4425-BFE2-EA20051CD117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="5月" sheetId="1" r:id="rId1"/>
+    <sheet name="打卡记录" sheetId="2" r:id="rId1"/>
+    <sheet name="5月" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +52,30 @@
   </si>
   <si>
     <t>1. 完善菜单Controller, 2. 编写权限菜单关联模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>May</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 搭建三台虚拟机 2. 用pygame搞了个小demo，以后有空玩玩pygame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 完善了简单线性回归 2. 学习了简单线性回归的评价标准 3. 研究半个小时pygame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +86,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +101,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,6 +127,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -118,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -140,6 +186,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -447,11 +502,310 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C947D2-3296-4C5D-A38F-B43B611FD629}">
+  <dimension ref="N12:AY19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="T32" sqref="T32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="14:51" x14ac:dyDescent="0.2">
+      <c r="Q12" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="14:51" x14ac:dyDescent="0.2">
+      <c r="Q13" s="10">
+        <v>5</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
+      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="11"/>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11"/>
+      <c r="AF13" s="11"/>
+      <c r="AG13" s="11"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="11"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="11"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
+      <c r="AW13" s="11"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
+    </row>
+    <row r="14" spans="14:51" x14ac:dyDescent="0.2">
+      <c r="N14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>6</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="11"/>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11"/>
+      <c r="AF14" s="11"/>
+      <c r="AG14" s="11"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="11"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="11"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="11"/>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="11"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="11"/>
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="11"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
+      <c r="AW14" s="11"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
+    </row>
+    <row r="15" spans="14:51" x14ac:dyDescent="0.2">
+      <c r="Q15" s="10">
+        <v>7</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
+      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
+      <c r="Z15" s="11"/>
+      <c r="AA15" s="11"/>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11"/>
+      <c r="AF15" s="11"/>
+      <c r="AG15" s="11"/>
+      <c r="AH15" s="11"/>
+      <c r="AI15" s="11"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="11"/>
+      <c r="AL15" s="11"/>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
+      <c r="AP15" s="11"/>
+      <c r="AQ15" s="11"/>
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
+      <c r="AW15" s="11"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
+    </row>
+    <row r="16" spans="14:51" x14ac:dyDescent="0.2">
+      <c r="N16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
+      <c r="Z16" s="11"/>
+      <c r="AA16" s="11"/>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11"/>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="11"/>
+      <c r="AH16" s="11"/>
+      <c r="AI16" s="11"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="11"/>
+      <c r="AL16" s="11"/>
+      <c r="AM16" s="11"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="11"/>
+      <c r="AP16" s="11"/>
+      <c r="AQ16" s="11"/>
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="11"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
+      <c r="AW16" s="11"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
+    </row>
+    <row r="17" spans="14:51" x14ac:dyDescent="0.2">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
+      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="11"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="11"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="11"/>
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="11"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
+      <c r="AW17" s="11"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
+    </row>
+    <row r="18" spans="14:51" x14ac:dyDescent="0.2">
+      <c r="N18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="11"/>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="11"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="11"/>
+      <c r="AR18" s="11"/>
+      <c r="AS18" s="11"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
+      <c r="AW18" s="11"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
+    </row>
+    <row r="19" spans="14:51" x14ac:dyDescent="0.2">
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
+      <c r="AA19" s="11"/>
+      <c r="AB19" s="11"/>
+      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="11"/>
+      <c r="AF19" s="11"/>
+      <c r="AG19" s="11"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="11"/>
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="11"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="11"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="11"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="11"/>
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="11"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="11"/>
+      <c r="AV19" s="11"/>
+      <c r="AW19" s="11"/>
+      <c r="AX19" s="11"/>
+      <c r="AY19" s="11"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -496,8 +850,12 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
@@ -506,8 +864,12 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">

--- a/notes/plan/2019/2019年度计划追踪.xlsx
+++ b/notes/plan/2019/2019年度计划追踪.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CD11BA-4142-4425-BFE2-EA20051CD117}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FF877E-1169-44CB-992E-CC07B485031A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,13 @@
   <si>
     <t>1. 完善了简单线性回归 2. 学习了简单线性回归的评价标准 3. 研究半个小时pygame</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Spring源码阅读</t>
   </si>
 </sst>
 </file>
@@ -506,7 +513,7 @@
   <dimension ref="N12:AY19"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="T32" sqref="T32"/>
+      <selection activeCell="AJ6" sqref="AJ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -643,7 +650,9 @@
       <c r="N16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
@@ -680,7 +689,9 @@
       <c r="AY16" s="11"/>
     </row>
     <row r="17" spans="14:51" x14ac:dyDescent="0.2">
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="10">
+        <v>9</v>
+      </c>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
@@ -805,7 +816,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -873,13 +884,17 @@
     </row>
     <row r="5" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>43593</v>
+        <v>43594</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="16.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
